--- a/testData/AutomationResults.xlsx
+++ b/testData/AutomationResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="179">
   <si>
     <t>Roll No</t>
   </si>
@@ -593,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -735,6 +735,1332 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>280.0</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>238.0</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>280.0</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>263.0</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>329.0</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>296.0</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>207.0</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>294.0</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>253.0</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>312.0</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>254.0</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>286.0</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>216.0</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>262.0</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>237.0</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>287.0</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>264.0</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>266.0</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>273.0</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>237.0</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>193.0</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>333.0</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>296.0</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>265.0</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>235.0</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>252.0</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>259.0</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C47" t="n" s="0">
+        <v>247.0</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>242.0</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C50" t="n" s="0">
+        <v>251.0</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C51" t="n" s="0">
+        <v>223.0</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C52" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C53" t="n" s="0">
+        <v>261.0</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C54" t="n" s="0">
+        <v>257.0</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C55" t="n" s="0">
+        <v>275.0</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C56" t="n" s="0">
+        <v>210.0</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C57" t="n" s="0">
+        <v>260.0</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C58" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C59" t="n" s="0">
+        <v>282.0</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C60" t="n" s="0">
+        <v>274.0</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C61" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C62" t="n" s="0">
+        <v>250.0</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C63" t="n" s="0">
+        <v>339.0</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C64" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C65" t="n" s="0">
+        <v>271.0</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C66" t="n" s="0">
+        <v>287.0</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C67" t="n" s="0">
+        <v>209.0</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C68" t="n" s="0">
+        <v>188.0</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C69" t="n" s="0">
+        <v>269.0</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C70" t="n" s="0">
+        <v>263.0</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C71" t="n" s="0">
+        <v>306.0</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C72" t="n" s="0">
+        <v>268.0</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C73" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C74" t="n" s="0">
+        <v>242.0</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C75" t="n" s="0">
+        <v>202.0</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C76" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C77" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C78" t="n" s="0">
+        <v>272.0</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C79" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C80" t="n" s="0">
+        <v>290.0</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>284.0</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C83" t="n" s="0">
+        <v>238.0</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>237.0</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>242.0</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>266.0</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
